--- a/Input/560126.xlsx
+++ b/Input/560126.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A108289119F">Data1!$C$1:$C$10,Data1!$C$11:$C$39</definedName>
-    <definedName name="A108289119F_Data">Data1!$C$11:$C$39</definedName>
-    <definedName name="A108289119F_Latest">Data1!$C$39</definedName>
-    <definedName name="A108289120R">Data1!$B$1:$B$10,Data1!$B$11:$B$39</definedName>
-    <definedName name="A108289120R_Data">Data1!$B$11:$B$39</definedName>
-    <definedName name="A108289120R_Latest">Data1!$B$39</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$39</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$39</definedName>
+    <definedName name="A108289119F">Data1!$C$1:$C$10,Data1!$C$11:$C$41</definedName>
+    <definedName name="A108289119F_Data">Data1!$C$11:$C$41</definedName>
+    <definedName name="A108289119F_Latest">Data1!$C$41</definedName>
+    <definedName name="A108289120R">Data1!$B$1:$B$10,Data1!$B$11:$B$41</definedName>
+    <definedName name="A108289120R_Data">Data1!$B$11:$B$41</definedName>
+    <definedName name="A108289120R_Latest">Data1!$B$41</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$41</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$41</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -136,7 +136,7 @@
     <t>5601.0 Lending Indicators</t>
   </si>
   <si>
-    <t>Table 26. Households; Housing finance; Non-residents; New loan commitments; Numbers and values #xmldatasettitlefootnote=</t>
+    <t>Table 26. Households; Housing finance; Non-residents; New loan commitments; Numbers and values</t>
   </si>
   <si>
     <t>E N Q U I R I E S</t>
@@ -157,7 +157,7 @@
     <t>Freq.</t>
   </si>
   <si>
-    <t>© Commonwealth of Australia  2021</t>
+    <t>© Commonwealth of Australia  2022</t>
   </si>
 </sst>
 </file>
@@ -347,8 +347,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -396,8 +396,8 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -790,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
@@ -859,10 +859,10 @@
         <v>43647</v>
       </c>
       <c r="G12" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H12" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>11</v>
@@ -891,10 +891,10 @@
         <v>43647</v>
       </c>
       <c r="G13" s="10">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="H13" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>16</v>
@@ -931,7 +931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1024,10 +1024,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="6">
-        <v>44501</v>
+        <v>44562</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1035,10 +1035,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1369,6 +1369,28 @@
       </c>
       <c r="C39" s="9">
         <v>183.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <v>44531</v>
+      </c>
+      <c r="B40" s="8">
+        <v>236</v>
+      </c>
+      <c r="C40" s="9">
+        <v>195.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <v>44562</v>
+      </c>
+      <c r="B41" s="8">
+        <v>195</v>
+      </c>
+      <c r="C41" s="9">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1451,7 +1473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
